--- a/converter/city_data/HsinChu_web/新竹市.xlsx
+++ b/converter/city_data/HsinChu_web/新竹市.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>超速、闖紅燈、違規轉彎、未依標誌標線行駛、未停讓行人、人行道違規</t>
+          <t>超速、闖紅燈、違規轉彎、未依標誌標線行駛、未停讓行人、人行道違規(西側)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
